--- a/data/D_DIRECTORES DE UNIDADES DE POSGRADO.xlsx
+++ b/data/D_DIRECTORES DE UNIDADES DE POSGRADO.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A83C514-3496-4C78-9E0E-CB4AD934DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F2029-4F9B-4C84-97BE-1F8DCA8B699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F802BA39-5C05-4F2F-A41E-A3EFB07D4F16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D718766-97D3-4E17-A279-FFEAFE0C0C4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="DIRECTORES DE UNIDADES DE POSGR" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -267,7 +267,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -316,30 +316,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF001F5F"/>
       </left>
       <right style="thin">
@@ -377,37 +353,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,346 +415,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF001F5F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF001F5F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF001F5F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF001F5F"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -789,6 +449,298 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -803,19 +755,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59E52F85-F98A-450D-832A-2F8011C2FC6B}" name="Tabla12" displayName="Tabla12" ref="A1:H12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H12" xr:uid="{215F25FC-8A25-4B6B-8AE8-403C0C78C282}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2FD76B6-93E8-403E-B220-B0DF2684159B}" name="Tabla1" displayName="Tabla1" ref="A1:H12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H12" xr:uid="{E2FD76B6-93E8-403E-B220-B0DF2684159B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{612597E8-0FA5-47B2-9850-6492BB0798EE}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{52AE1600-1D99-4519-BAF2-0FAE0DE08A47}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{445D6CDA-F5CB-47AB-81BA-0BABAEB9ADBF}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{43C8DC2B-D850-46B5-860A-8F0171E33B55}" name="RESOL." dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E1A19131-46D2-4C8C-8C99-1FC221C68CC5}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{70DA39AB-75DE-4847-A82A-2149328672E5}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4C239794-F44C-4B41-90BC-7B03A9A5FAF1}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6377C6B0-B447-4F72-8607-415E45DABD31}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CAF95A77-620B-4670-90AC-31141C742A19}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4CE50C1D-7F86-47DD-977B-1A0AF293D2B7}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{82787F40-D41E-4A67-805B-ED71218F54F7}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FD0ED179-CC61-4762-928C-3DF9D9F882F4}" name="RESOL." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{940309C3-71D1-4659-85F1-210BD38286F2}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{92681BF0-8CD2-4B24-83FB-5E9D08CFC42A}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9C073400-500D-4B9D-86BB-D9FC6AE6DFA6}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{AADC2BDE-07F9-4A82-8065-C66884CC0473}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1115,326 +1067,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363DD80-2670-4816-81E9-C212905922CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F051B41-DE80-4396-AD74-5B9CE2645CA5}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="3"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="67.5">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="56.25">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" ht="67.5">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" ht="56.25">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="45">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="56.25">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="45">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" ht="56.25">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.posgrado@unac.edu.pe" xr:uid="{FEDA764B-CE90-4F0B-B3E4-E77B3849C233}"/>
-    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.posgrado@unac.edu.pe" xr:uid="{923136A1-CE05-4953-B127-216B3F628633}"/>
-    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.posgrado@unac.edu.pe" xr:uid="{0E5FE8D0-3964-419D-ADE4-B4040292F136}"/>
-    <hyperlink ref="G5" r:id="rId4" display="mailto:fcnm.posgrado@unac.edu.pe" xr:uid="{0A8C2405-5B42-47C6-9A87-1DED3A069FC6}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{3C47A21F-C331-446A-A144-7BDAED6C3DA9}"/>
-    <hyperlink ref="G7" r:id="rId6" display="mailto:fiarn.posgrado@unac.edu.pe" xr:uid="{EAD66316-6D02-4475-BA44-AFA31C525F04}"/>
-    <hyperlink ref="G8" r:id="rId7" display="mailto:fiee.posgrado@unac.edu.pe" xr:uid="{0A84D805-DC0D-4C45-9B31-5AB7713F2846}"/>
-    <hyperlink ref="G9" r:id="rId8" display="mailto:fiis.posgrado@unac.edu.pe" xr:uid="{37EB2283-DB58-42D1-AB8A-F0ADB02D1120}"/>
-    <hyperlink ref="G10" r:id="rId9" display="mailto:fime.posgrado@unac.edu.pe" xr:uid="{3F2E4AC9-8791-458C-833D-DB3E26566BE0}"/>
-    <hyperlink ref="G11" r:id="rId10" display="mailto:fipa.posgrado@unac.edu.pe" xr:uid="{0C830523-33CD-49ED-85C5-141F28A954DD}"/>
-    <hyperlink ref="G12" r:id="rId11" display="mailto:fiq.posgrado@unac.edu.pe" xr:uid="{B1DDCBD6-4BDC-4D3E-BCE1-C46CB7FA5A3E}"/>
-    <hyperlink ref="F2" r:id="rId12" xr:uid="{FBE84930-730E-4F91-B944-03B6AAF73520}"/>
-    <hyperlink ref="F5" r:id="rId13" xr:uid="{6815FD04-A738-433D-B598-1D312780E72E}"/>
-    <hyperlink ref="F7" r:id="rId14" xr:uid="{4CEDA5D1-BFDB-4E24-8244-89F964397514}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{B7C373A9-0C30-424C-9414-14A8FDCB7BBF}"/>
-    <hyperlink ref="F9" r:id="rId16" xr:uid="{D59B9808-6ADF-4DCF-A24D-19790E2E081F}"/>
-    <hyperlink ref="F10" r:id="rId17" xr:uid="{FD8F5EDF-9068-4AFF-9792-973E133F6DA3}"/>
-    <hyperlink ref="F11" r:id="rId18" xr:uid="{6B4CD255-5142-4A3F-8750-922D7F0A1C91}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{BD8E92DC-4517-40A8-BADB-4F8402F4A6F3}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{ECD1CE92-DB4A-4E57-894D-04492EBDCF0E}"/>
-    <hyperlink ref="F6" r:id="rId21" xr:uid="{86ED1FFD-6F3B-48C5-A51E-24BBAE8F8B81}"/>
-    <hyperlink ref="F4" r:id="rId22" xr:uid="{84395489-F368-418F-8FD2-89E9DAA66ED4}"/>
-    <hyperlink ref="D4" r:id="rId23" xr:uid="{6CD920C6-1778-41E4-82E5-A8FE791C4812}"/>
-    <hyperlink ref="D6" r:id="rId24" xr:uid="{65A6BCA6-C447-48AC-BDB1-C2B2B819E406}"/>
-    <hyperlink ref="D7" r:id="rId25" xr:uid="{927797D0-FCC3-413B-A1BB-F019C7DB0ECE}"/>
-    <hyperlink ref="D11" r:id="rId26" xr:uid="{6481E580-1182-4C97-82E5-56F5940087C7}"/>
-    <hyperlink ref="D9" r:id="rId27" xr:uid="{6A72FF6D-238D-4656-B052-9575EA2AFBA4}"/>
-    <hyperlink ref="D8" r:id="rId28" xr:uid="{252312E5-73BD-4645-AB4E-A94B0EF58482}"/>
-    <hyperlink ref="D5" r:id="rId29" xr:uid="{8DCFA8E0-9815-415A-87D7-62C7DB49BB94}"/>
-    <hyperlink ref="D3" r:id="rId30" xr:uid="{658DCCE0-6E72-48B5-BBE6-B9B86BED49DA}"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.posgrado@unac.edu.pe" xr:uid="{A3F3B892-E555-488F-B3A0-EB1360B5B293}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.posgrado@unac.edu.pe" xr:uid="{271A996F-9753-4CFC-BE4C-F9C15AA60AD6}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:fce.posgrado@unac.edu.pe" xr:uid="{1CB2CDB0-FF80-419D-8B6B-8651C2CA05CB}"/>
+    <hyperlink ref="G5" r:id="rId4" display="mailto:fcnm.posgrado@unac.edu.pe" xr:uid="{70CB4DC6-4E4C-4735-BB0A-80AAD83CEAC1}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{BBA2C54D-1F1D-4FDF-B51A-D75D100572F7}"/>
+    <hyperlink ref="G7" r:id="rId6" display="mailto:fiarn.posgrado@unac.edu.pe" xr:uid="{5FBB6BD7-DF63-4ABB-9219-7F844DD5834A}"/>
+    <hyperlink ref="G8" r:id="rId7" display="mailto:fiee.posgrado@unac.edu.pe" xr:uid="{2E3A2F7D-28FA-4281-A1E2-F8861198FFA7}"/>
+    <hyperlink ref="G9" r:id="rId8" display="mailto:fiis.posgrado@unac.edu.pe" xr:uid="{EAAB39FD-9694-4D71-AB7C-12DD6BF6DD9B}"/>
+    <hyperlink ref="G10" r:id="rId9" display="mailto:fime.posgrado@unac.edu.pe" xr:uid="{868391DF-875C-4BA2-BC46-8D130854DE17}"/>
+    <hyperlink ref="G11" r:id="rId10" display="mailto:fipa.posgrado@unac.edu.pe" xr:uid="{54B5174B-ED47-407B-BB78-51A51A2C1E43}"/>
+    <hyperlink ref="G12" r:id="rId11" display="mailto:fiq.posgrado@unac.edu.pe" xr:uid="{013C4935-50FA-45F2-9CFD-3410FCA461B9}"/>
+    <hyperlink ref="F2" r:id="rId12" xr:uid="{A2294C9D-4A83-47E7-A811-CDACA4FBC8B3}"/>
+    <hyperlink ref="F5" r:id="rId13" xr:uid="{C5F2BD4E-E7BE-40FB-91D5-9CFB773A2C8A}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{FF6369C4-FCE1-4046-8209-F6557D6D8FBA}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{A22B35A1-B693-436D-AFBA-01945D11549C}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{FC82E25A-9F11-47E8-B966-FA0EFD3258C7}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{7DB47029-54EF-419D-92C5-6E5256F1A10E}"/>
+    <hyperlink ref="F11" r:id="rId18" xr:uid="{E781E7F4-BCBD-4B1E-BF2F-FAE19B1418A9}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{00B63220-F3C8-4CF2-A7DA-09B897780853}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{D5319982-4BBA-4B14-A860-C6FE0597D85A}"/>
+    <hyperlink ref="F6" r:id="rId21" xr:uid="{C14C211F-E80F-460B-9A5F-3FDD99B15193}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{337EAD84-70DA-4BD2-B5EF-D7C8F126E56D}"/>
+    <hyperlink ref="D4" r:id="rId23" xr:uid="{F372B622-D40F-479A-AF51-62D56CE3DD9A}"/>
+    <hyperlink ref="D6" r:id="rId24" xr:uid="{DF298420-74D9-43D2-B234-125296FCB532}"/>
+    <hyperlink ref="D7" r:id="rId25" xr:uid="{48DEADF9-8AFB-4E44-A7F0-ED95054EE91A}"/>
+    <hyperlink ref="D11" r:id="rId26" xr:uid="{F6653542-3C59-4512-B933-1F207BA4F086}"/>
+    <hyperlink ref="D9" r:id="rId27" xr:uid="{7AE7F9B3-6145-4745-8051-EC3827A92D94}"/>
+    <hyperlink ref="D8" r:id="rId28" xr:uid="{55339412-D8B3-4425-A6DB-5E0F9F150085}"/>
+    <hyperlink ref="D5" r:id="rId29" xr:uid="{4344480B-E24C-4878-978D-FAC3846FA832}"/>
+    <hyperlink ref="D3" r:id="rId30" xr:uid="{BEAEA5C3-0866-415D-8898-3A2410857488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
